--- a/input/PREP_e.xlsx
+++ b/input/PREP_e.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="993" documentId="8_{1257A13C-7CDD-45B3-91A9-B5EE2763487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1E4332F-12E0-4EB0-8552-F598B2E7F6FB}"/>
+  <xr:revisionPtr revIDLastSave="997" documentId="8_{1257A13C-7CDD-45B3-91A9-B5EE2763487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D463DBEA-4623-462E-B61D-1E6992F149A3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
+    <workbookView xWindow="3400" yWindow="3400" windowWidth="2370" windowHeight="560" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
   <sheets>
     <sheet name="PARSTEST" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MOMS!$A$1:$K$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARS!$A$1:$Y$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PARS!$A$1:$Y$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PARS4!$A$1:$V$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">W_psid!$A$1:$CT$98</definedName>
   </definedNames>
@@ -1616,12 +1616,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1679,10 +1679,10 @@
       </c>
       <c r="H2">
         <f ca="1">RAND()</f>
-        <v>7.0122629791329105E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.77506094986110519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -1711,10 +1711,10 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H52" ca="1" si="1">RAND()</f>
-        <v>0.31602718554613962</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.88016399616179808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -1736,17 +1736,17 @@
       </c>
       <c r="F4">
         <f>VLOOKUP(A4,PARS!A:X,19,0)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0.24423531605882964</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48959794072015828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.203604349141432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1775,10 +1775,10 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37605427879766851</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.24377584711420031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>246</v>
       </c>
@@ -1807,13 +1807,13 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8279486078206562E-3</v>
+        <v>0.18236486921333905</v>
       </c>
       <c r="I6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1842,13 +1842,13 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98981716922187302</v>
+        <v>0.9487481813625479</v>
       </c>
       <c r="I7">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -1877,10 +1877,10 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10974018624802007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.84141878377757195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -1909,10 +1909,10 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7315386725837554E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33136491548076541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1941,10 +1941,10 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24143981123792413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.65330928982537206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -1973,10 +1973,10 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43700892331220875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.77984552745639213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -2005,10 +2005,10 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48407234719086922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.78625661498552379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -2037,10 +2037,10 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41377039004245919</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.6370554193517205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -2069,10 +2069,10 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>3.758403960104395E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.52722483311062529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -2101,10 +2101,10 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68932570023274597</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.8355616674882681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -2133,10 +2133,10 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65001730595425722</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.3027494092157833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2165,10 +2165,10 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42704573924999389</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.58840963509876465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -2197,10 +2197,10 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98823372508659091</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.99896739936796353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -2229,10 +2229,10 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5042737838144378E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.64151416494740365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>71</v>
       </c>
@@ -2261,10 +2261,10 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51828919097095516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.92696026496344008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -2293,10 +2293,10 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37617306303815923</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.77101712778247111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -2325,10 +2325,10 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25242505707774487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.23945760813967076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -2357,10 +2357,10 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6013532460666311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.10222070981917597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2389,10 +2389,10 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83193140829880341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.65841010711058834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -2421,10 +2421,10 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73686321552881573</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.77886567888249347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -2453,10 +2453,10 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89409900908575901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.1309561324712947E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -2485,10 +2485,10 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47321955763844969</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.8811578151191508E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -2517,10 +2517,10 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33005495403472751</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.5282181305308562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -2549,10 +2549,10 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35574114016426339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.90606893543655453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -2581,10 +2581,10 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3423108900925903</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.62742053190792912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -2613,10 +2613,10 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38150459361066813</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.43738814324696407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -2645,10 +2645,10 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14363177717184561</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.66596540657504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -2677,10 +2677,10 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83634321568268999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.0550060475899263E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -2709,10 +2709,10 @@
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84127291453790165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.64033467796813892</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -2741,10 +2741,10 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22323666983167589</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.32099780158281321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -2773,10 +2773,10 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9653841169111117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.45730416103967853</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -2805,10 +2805,10 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54606335662012262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.95143702549997367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>68</v>
       </c>
@@ -2837,10 +2837,10 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96217507258335455</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.42161970803789528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>106</v>
       </c>
@@ -2869,10 +2869,10 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15319244529193166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.10033196554817847</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -2901,10 +2901,10 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11876309291310883</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.94385450158476258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>108</v>
       </c>
@@ -2933,10 +2933,10 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26846552594332118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.25007222615796298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -2965,10 +2965,10 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8028997927408551</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.52279640254734738</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -2997,10 +2997,10 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81456864046547839</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.5548382512999464E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -3029,10 +3029,10 @@
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23417874338221889</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4.6012082431282852E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -3061,10 +3061,10 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49330834960382242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.46301218592713722</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -3093,10 +3093,10 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86775164607966571</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.43791037702580682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -3125,10 +3125,10 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45696046866610507</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.40608766318082967</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>245</v>
       </c>
@@ -3157,10 +3157,10 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58815396708780765</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.1967067057046018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>247</v>
       </c>
@@ -3189,10 +3189,10 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72770194025874513</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.80522000885851985</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>178</v>
       </c>
@@ -3221,10 +3221,10 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60877006187967875</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.6642081786633125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>179</v>
       </c>
@@ -3253,10 +3253,10 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13424279738927114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.57275156536814675</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>180</v>
       </c>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23865049372430303</v>
+        <v>0.51545199605702541</v>
       </c>
     </row>
   </sheetData>
@@ -3301,9 +3301,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>18.518263999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -3444,12 +3444,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>212</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C16">
         <f>EXP(-0.0135*6.6667)*2*(1-0.156527)/(0.193*(C17))</f>
         <v>20.65970855393061</v>
@@ -3485,13 +3485,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C17">
         <f>2206.542/(24*365)+EXP(-0.26248)*(2206.542/(24*365)-671.547/(24*365))</f>
         <v>0.38666332602882758</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>215</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>268</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>5.1572157981963294</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>0.24399999999999999</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F21">
         <f>1873/(24*365)*EXP(I16*H16)</f>
         <v>0.21381278538812784</v>
@@ -3541,12 +3541,12 @@
         <v>5.2133439236329941</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>0.22</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F24">
         <f>(F19*(1-F16)+F21*F16)/(1-C26)</f>
         <v>0.21250051454263474</v>
@@ -3564,12 +3564,12 @@
         <v>5.1813471502590662</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>0</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F27">
         <f>1/(F24*0.193)</f>
         <v>24.382751079030985</v>
@@ -3610,18 +3610,18 @@
       <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="8.77734375" style="3"/>
-    <col min="89" max="90" width="8.77734375"/>
-    <col min="94" max="94" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="8.81640625" style="3"/>
+    <col min="89" max="90" width="8.81640625"/>
+    <col min="94" max="94" width="12.453125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>257</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>-2.0296413216630329</v>
       </c>
     </row>
-    <row r="3" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>5.0035880871581071</v>
       </c>
     </row>
-    <row r="4" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>-12.851326992528833</v>
       </c>
     </row>
-    <row r="5" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>7.1946749407304695</v>
       </c>
     </row>
-    <row r="6" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>25.391509929035443</v>
       </c>
     </row>
-    <row r="7" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>-5.712925748005695</v>
       </c>
     </row>
-    <row r="8" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>-3.6062964112652112</v>
       </c>
     </row>
-    <row r="9" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>-4.9372626050515755</v>
       </c>
     </row>
-    <row r="10" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>-14.02642101081069</v>
       </c>
     </row>
-    <row r="11" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>8.0013954809210599</v>
       </c>
     </row>
-    <row r="12" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>6.3135799022223571</v>
       </c>
     </row>
-    <row r="13" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>5.8370587866752386</v>
       </c>
     </row>
-    <row r="14" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>3.9687771659635063</v>
       </c>
     </row>
-    <row r="15" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>-4.6160372867568</v>
       </c>
     </row>
-    <row r="16" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>2.2479531129863073</v>
       </c>
     </row>
-    <row r="17" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -8294,7 +8294,7 @@
       <c r="CI17"/>
       <c r="CP17"/>
     </row>
-    <row r="18" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -8303,7 +8303,7 @@
       <c r="CI18"/>
       <c r="CP18"/>
     </row>
-    <row r="19" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>134</v>
       </c>
@@ -8312,7 +8312,7 @@
       <c r="CI19"/>
       <c r="CP19"/>
     </row>
-    <row r="20" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -8321,7 +8321,7 @@
       <c r="CI20"/>
       <c r="CP20"/>
     </row>
-    <row r="21" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -8330,7 +8330,7 @@
       <c r="CI21"/>
       <c r="CP21"/>
     </row>
-    <row r="22" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -8339,7 +8339,7 @@
       <c r="CI22"/>
       <c r="CP22"/>
     </row>
-    <row r="23" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -8348,7 +8348,7 @@
       <c r="CI23"/>
       <c r="CP23"/>
     </row>
-    <row r="24" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -8357,7 +8357,7 @@
       <c r="CI24"/>
       <c r="CP24"/>
     </row>
-    <row r="25" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>12.767409460308301</v>
       </c>
     </row>
-    <row r="26" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>4.1220733574200592</v>
       </c>
     </row>
-    <row r="27" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>3.5434492892538785</v>
       </c>
     </row>
-    <row r="28" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>0.88232776606936802</v>
       </c>
     </row>
-    <row r="29" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>6.7106863399490422</v>
       </c>
     </row>
-    <row r="30" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>12.805322242798837</v>
       </c>
     </row>
-    <row r="31" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>14.393167643961135</v>
       </c>
     </row>
-    <row r="32" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>6.722005882409035</v>
       </c>
     </row>
-    <row r="33" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>-0.34612109326170182</v>
       </c>
     </row>
-    <row r="34" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>0.18732061381647908</v>
       </c>
     </row>
-    <row r="35" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>5.3570368124941314E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>4.7934587856562814E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>3.5073260893255305E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>-7.2809976451676597E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>-40.406245081515273</v>
       </c>
     </row>
-    <row r="40" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>-53.800938192401112</v>
       </c>
     </row>
-    <row r="41" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>-357.03119582676419</v>
       </c>
     </row>
-    <row r="42" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>662.90452847279516</v>
       </c>
     </row>
-    <row r="43" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>-148.78855936816581</v>
       </c>
     </row>
-    <row r="44" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>345.81946724344721</v>
       </c>
     </row>
-    <row r="45" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>219.05539285885851</v>
       </c>
     </row>
-    <row r="46" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>-562.59385544473537</v>
       </c>
     </row>
-    <row r="47" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>88.169267851195826</v>
       </c>
     </row>
-    <row r="48" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>-281.6616608249397</v>
       </c>
     </row>
-    <row r="49" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>-111.1127566081699</v>
       </c>
     </row>
-    <row r="50" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>621.24326478862758</v>
       </c>
     </row>
-    <row r="51" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -16187,7 +16187,7 @@
         <v>207.29363455577811</v>
       </c>
     </row>
-    <row r="52" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -16477,7 +16477,7 @@
         <v>113.82768712378181</v>
       </c>
     </row>
-    <row r="53" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>-666.86331278211117</v>
       </c>
     </row>
-    <row r="54" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>5.6169774900893374</v>
       </c>
     </row>
-    <row r="55" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>-452.81318554046766</v>
       </c>
     </row>
-    <row r="56" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>-30.37294984310623</v>
       </c>
     </row>
-    <row r="57" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -17927,7 +17927,7 @@
         <v>-28.320218550465427</v>
       </c>
     </row>
-    <row r="58" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -18217,7 +18217,7 @@
         <v>-30.706725248446652</v>
       </c>
     </row>
-    <row r="59" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>-30.132188656985253</v>
       </c>
     </row>
-    <row r="60" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -18797,7 +18797,7 @@
         <v>4.8634484176006874</v>
       </c>
     </row>
-    <row r="61" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>1.3066972793083647</v>
       </c>
     </row>
-    <row r="62" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>1164.8400185322819</v>
       </c>
     </row>
-    <row r="63" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -19667,7 +19667,7 @@
         <v>1116.7541388973636</v>
       </c>
     </row>
-    <row r="64" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>161</v>
       </c>
@@ -19957,7 +19957,7 @@
         <v>268.55632849453423</v>
       </c>
     </row>
-    <row r="65" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>162</v>
       </c>
@@ -20247,7 +20247,7 @@
         <v>261.07489581404377</v>
       </c>
     </row>
-    <row r="66" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -20537,7 +20537,7 @@
         <v>100.52625723424217</v>
       </c>
     </row>
-    <row r="67" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>139</v>
       </c>
@@ -20827,7 +20827,7 @@
         <v>149.55405170424277</v>
       </c>
     </row>
-    <row r="68" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -21117,7 +21117,7 @@
         <v>-18179.917504222019</v>
       </c>
     </row>
-    <row r="69" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>163</v>
       </c>
@@ -21407,7 +21407,7 @@
         <v>39.641593907823676</v>
       </c>
     </row>
-    <row r="70" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>164</v>
       </c>
@@ -21697,7 +21697,7 @@
         <v>60.589514842694634</v>
       </c>
     </row>
-    <row r="71" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -21987,7 +21987,7 @@
         <v>-18454.800170270933</v>
       </c>
     </row>
-    <row r="72" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>171</v>
       </c>
@@ -22277,7 +22277,7 @@
         <v>22.426322651415596</v>
       </c>
     </row>
-    <row r="73" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -22567,7 +22567,7 @@
         <v>14.863046742156417</v>
       </c>
     </row>
-    <row r="74" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>4.3168201627680061</v>
       </c>
     </row>
-    <row r="75" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -23147,7 +23147,7 @@
         <v>-23.451531837276775</v>
       </c>
     </row>
-    <row r="76" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -23437,7 +23437,7 @@
         <v>-275.73994240008915</v>
       </c>
     </row>
-    <row r="77" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>168</v>
       </c>
@@ -23727,7 +23727,7 @@
         <v>-0.3855361957766541</v>
       </c>
     </row>
-    <row r="78" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -24017,7 +24017,7 @@
         <v>-0.46188170042686127</v>
       </c>
     </row>
-    <row r="79" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>166</v>
       </c>
@@ -24307,7 +24307,7 @@
         <v>-0.45335990181821606</v>
       </c>
     </row>
-    <row r="80" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -24597,7 +24597,7 @@
         <v>-0.60078074558098737</v>
       </c>
     </row>
-    <row r="81" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>201</v>
       </c>
@@ -24887,7 +24887,7 @@
         <v>-0.65846714851005228</v>
       </c>
     </row>
-    <row r="82" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>202</v>
       </c>
@@ -25177,7 +25177,7 @@
         <v>-0.67321190630037231</v>
       </c>
     </row>
-    <row r="83" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>198</v>
       </c>
@@ -25467,7 +25467,7 @@
         <v>-0.65963758703880437</v>
       </c>
     </row>
-    <row r="84" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>199</v>
       </c>
@@ -25757,7 +25757,7 @@
         <v>-0.81702362779335869</v>
       </c>
     </row>
-    <row r="85" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>203</v>
       </c>
@@ -26047,7 +26047,7 @@
         <v>0.76312938806308983</v>
       </c>
     </row>
-    <row r="86" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>200</v>
       </c>
@@ -26337,7 +26337,7 @@
         <v>0.34888681214844641</v>
       </c>
     </row>
-    <row r="87" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>0.66739398062077226</v>
       </c>
     </row>
-    <row r="88" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>117</v>
       </c>
@@ -26917,7 +26917,7 @@
         <v>0.32622320099411833</v>
       </c>
     </row>
-    <row r="89" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -27207,7 +27207,7 @@
         <v>427.63033294459785</v>
       </c>
     </row>
-    <row r="90" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>35</v>
       </c>
@@ -27497,7 +27497,7 @@
         <v>0.74883367305736481</v>
       </c>
     </row>
-    <row r="91" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>28</v>
       </c>
@@ -27787,7 +27787,7 @@
         <v>0.76212908277044566</v>
       </c>
     </row>
-    <row r="92" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>29</v>
       </c>
@@ -28077,7 +28077,7 @@
         <v>0.69091997558918039</v>
       </c>
     </row>
-    <row r="93" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -28367,7 +28367,7 @@
         <v>3.2106013303829832E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:106" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:106" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>31</v>
       </c>
@@ -28668,7 +28668,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>157</v>
       </c>
@@ -28958,7 +28958,7 @@
         <v>5.9328955521206372E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>158</v>
       </c>
@@ -29248,7 +29248,7 @@
         <v>1.4198498524701583E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -29538,7 +29538,7 @@
         <v>393.57349381205324</v>
       </c>
     </row>
-    <row r="98" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -29828,7 +29828,7 @@
         <v>13.584673612485888</v>
       </c>
     </row>
-    <row r="99" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -30118,7 +30118,7 @@
         <v>42.99813070608112</v>
       </c>
     </row>
-    <row r="100" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -30408,7 +30408,7 @@
         <v>3.579181799182944</v>
       </c>
     </row>
-    <row r="101" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>159</v>
       </c>
@@ -30698,7 +30698,7 @@
         <v>-71.218063304864287</v>
       </c>
     </row>
-    <row r="102" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>160</v>
       </c>
@@ -30988,7 +30988,7 @@
         <v>12.497500987142208</v>
       </c>
     </row>
-    <row r="103" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>42</v>
       </c>
@@ -31278,7 +31278,7 @@
         <v>-0.78175755851630979</v>
       </c>
     </row>
-    <row r="104" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:104" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>43</v>
       </c>
@@ -31583,12 +31583,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>173</v>
       </c>
@@ -31617,7 +31617,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -31649,7 +31649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -31681,7 +31681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -31713,7 +31713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -31745,7 +31745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -31778,7 +31778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -31811,7 +31811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -31843,7 +31843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -31875,7 +31875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>223</v>
       </c>
@@ -31920,9 +31920,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>194</v>
       </c>
@@ -31930,7 +31930,7 @@
         <v>256413</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -31938,7 +31938,7 @@
         <v>51995</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>196</v>
       </c>
@@ -31946,7 +31946,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -31967,12 +31967,12 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>225</v>
       </c>
@@ -31992,7 +31992,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>229</v>
       </c>
@@ -32021,7 +32021,7 @@
         <v>0.75303553579284377</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -32038,7 +32038,7 @@
         <v>0.70559799999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4">
         <f>SUM(B2:B3)</f>
         <v>0.90879160567250994</v>
@@ -32048,7 +32048,7 @@
         <v>0.81802282102425528</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -32061,7 +32061,7 @@
         <v>0.35045776923550626</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>232</v>
       </c>
@@ -32074,7 +32074,7 @@
         <v>0.63664636440799371</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -32087,7 +32087,7 @@
         <v>0.53013359469130383</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>234</v>
       </c>
@@ -32096,7 +32096,7 @@
         <v>0.59019788715857813</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>223</v>
       </c>
@@ -32118,14 +32118,14 @@
       <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>122</v>
       </c>
@@ -32136,7 +32136,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -32147,7 +32147,7 @@
         <v>12.15999517122788</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -32158,7 +32158,7 @@
         <v>-3.861997079160544</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -32169,7 +32169,7 @@
         <v>-3.0873847385719864</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -32180,7 +32180,7 @@
         <v>-3.0225488018735542</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -32191,7 +32191,7 @@
         <v>-0.11303417539098579</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -32202,7 +32202,7 @@
         <v>0.36030751060892358</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -32213,7 +32213,7 @@
         <v>8.6669121586366344</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -32224,7 +32224,7 @@
         <v>-1.8066067213854717</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -32235,7 +32235,7 @@
         <v>-1.8615985945475741</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -32246,7 +32246,7 @@
         <v>-2.3628717358738442</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -32257,7 +32257,7 @@
         <v>-0.11499820885638209</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -32268,7 +32268,7 @@
         <v>0.53125214244041696</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -32279,7 +32279,7 @@
         <v>-2.6967358682803724</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -32290,7 +32290,7 @@
         <v>-2.7084940999921852</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -32301,7 +32301,7 @@
         <v>-0.29730104993288531</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -32312,7 +32312,7 @@
         <v>0.37207329147337387</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -32323,7 +32323,7 @@
         <v>1.858023032880175E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -32334,7 +32334,7 @@
         <v>1.8814014327029097E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -32345,7 +32345,7 @@
         <v>1.9666306282818055E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -32356,7 +32356,7 @@
         <v>1.9010739631001277E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -32367,7 +32367,7 @@
         <v>9.9917849898722749E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -32378,7 +32378,7 @@
         <v>1.0295415592160683E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -32389,7 +32389,7 @@
         <v>127.55650702409324</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -32400,7 +32400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -32411,7 +32411,7 @@
         <v>152.82676676750708</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -32422,7 +32422,7 @@
         <v>19570.859179726365</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -32433,7 +32433,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -32448,7 +32448,7 @@
         <v>20.026576805157596</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -32463,7 +32463,7 @@
         <v>8.2483440519201159E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -32478,7 +32478,7 @@
         <v>-1.771505167312345</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -32493,7 +32493,7 @@
         <v>2.7941517001804216E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -32508,7 +32508,7 @@
         <v>-1.6930687599577825</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -32523,7 +32523,7 @@
         <v>20.276893488579226</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -32538,7 +32538,7 @@
         <v>-1.4098748233617799</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -32553,7 +32553,7 @@
         <v>-1.5614483850622725</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -32568,7 +32568,7 @@
         <v>133.69302783249751</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -32583,7 +32583,7 @@
         <v>123.71609524145379</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -32594,7 +32594,7 @@
         <v>9.652543979375891E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -32605,7 +32605,7 @@
         <v>7.0380097359185795E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -32616,7 +32616,7 @@
         <v>0.97377889090392133</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -32627,7 +32627,7 @@
         <v>-0.22074335511107743</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>147</v>
       </c>
@@ -32638,7 +32638,7 @@
         <v>0.93260040414320899</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>148</v>
       </c>
@@ -32649,7 +32649,7 @@
         <v>-0.25520335289941354</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -32660,7 +32660,7 @@
         <v>1873.126070137658</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -32671,7 +32671,7 @@
         <v>495.34145665939718</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -32682,7 +32682,7 @@
         <v>1965.336546713233</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -32693,7 +32693,7 @@
         <v>-151.6344770370616</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -32704,7 +32704,7 @@
         <v>593.16349855375722</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>188.31892785785749</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -32726,7 +32726,7 @@
         <v>2206.542127027375</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -32737,7 +32737,7 @@
         <v>63.102838742636663</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -32748,7 +32748,7 @@
         <v>-671.54653071480561</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -32759,7 +32759,7 @@
         <v>105.92467385866674</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -32770,7 +32770,7 @@
         <v>-617.09437937111409</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -32781,7 +32781,7 @@
         <v>-558.4590458999968</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -32792,7 +32792,7 @@
         <v>-604.50613192106164</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -32803,7 +32803,7 @@
         <v>-50.524167685204183</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -32814,7 +32814,7 @@
         <v>277.39608436846476</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -32825,7 +32825,7 @@
         <v>973.91420861085408</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -32836,7 +32836,7 @@
         <v>683.00321899695871</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -32847,7 +32847,7 @@
         <v>-109.15475557571985</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -32862,7 +32862,7 @@
         <v>17.300003524767639</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>55</v>
       </c>
@@ -32877,7 +32877,7 @@
         <v>16.418734903213593</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>155</v>
       </c>
@@ -32892,7 +32892,7 @@
         <v>16.266669438421928</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>156</v>
       </c>
@@ -32907,7 +32907,7 @@
         <v>16.373180176893996</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -32922,7 +32922,7 @@
         <v>16.504850498150336</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -32937,7 +32937,7 @@
         <v>15.675766842903421</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -32952,7 +32952,7 @@
         <v>1.8622385760180244</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -32967,7 +32967,7 @@
         <v>0.70642425246518226</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>29</v>
       </c>
@@ -32982,7 +32982,7 @@
         <v>-0.10535005810064095</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -32997,7 +32997,7 @@
         <v>-1.9224713242195252E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>31</v>
       </c>
@@ -33012,7 +33012,7 @@
         <v>-1.5885984766191011E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -33027,7 +33027,7 @@
         <v>-1.8706854060627303E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -33042,7 +33042,7 @@
         <v>-1.422609169165413E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -33057,7 +33057,7 @@
         <v>-5.4621032555208648</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -33072,7 +33072,7 @@
         <v>-5.1460409643363656</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -33087,7 +33087,7 @@
         <v>-4.9346812496187633</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -33102,7 +33102,7 @@
         <v>-2.4845221584139527</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -33117,7 +33117,7 @@
         <v>-1.0639786208145947</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -33132,7 +33132,7 @@
         <v>3.2846178304940312</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>159</v>
       </c>
@@ -33147,7 +33147,7 @@
         <v>5.3482036813019489</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>160</v>
       </c>
@@ -33162,7 +33162,7 @@
         <v>-1.4777125223452736</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -33177,7 +33177,7 @@
         <v>1.450330367540659E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>43</v>
       </c>
@@ -33192,7 +33192,7 @@
         <v>-1.1786282199478218E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>161</v>
       </c>
@@ -33207,7 +33207,7 @@
         <v>72.316990935221881</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>162</v>
       </c>
@@ -33222,7 +33222,7 @@
         <v>65.080088959279095</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -33233,7 +33233,7 @@
         <v>122.548474987894</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>164</v>
       </c>
@@ -33244,7 +33244,7 @@
         <v>142.5528382120342</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>165</v>
       </c>
@@ -33255,7 +33255,7 @@
         <v>18478.29340157317</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>198</v>
       </c>
@@ -33263,7 +33263,7 @@
         <v>-0.23237462229539668</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>199</v>
       </c>
@@ -33271,7 +33271,7 @@
         <v>-0.2885949120223249</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>200</v>
       </c>
@@ -33279,7 +33279,7 @@
         <v>-0.26293418832561893</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>201</v>
       </c>
@@ -33287,7 +33287,7 @@
         <v>-0.29549068412733248</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>202</v>
       </c>
@@ -33295,7 +33295,7 @@
         <v>-0.34749104115171398</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>203</v>
       </c>
@@ -33303,7 +33303,7 @@
         <v>-0.32539548393483481</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>166</v>
       </c>
@@ -33314,7 +33314,7 @@
         <v>-0.24229407501972869</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>167</v>
       </c>
@@ -33325,7 +33325,7 @@
         <v>-0.27005117509554516</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -33336,7 +33336,7 @@
         <v>-0.24397495405798156</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>168</v>
       </c>
@@ -33347,7 +33347,7 @@
         <v>-0.29782014109595623</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>169</v>
       </c>
@@ -33358,7 +33358,7 @@
         <v>-0.32810689174601754</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>170</v>
       </c>
@@ -33369,7 +33369,7 @@
         <v>-0.30802326104585137</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>171</v>
       </c>
@@ -33384,7 +33384,7 @@
         <v>8.2312816185046458</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>172</v>
       </c>
@@ -33406,27 +33406,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="24" max="24" width="19.5546875" customWidth="1"/>
-    <col min="27" max="27" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" customWidth="1"/>
+    <col min="24" max="24" width="19.54296875" customWidth="1"/>
+    <col min="27" max="27" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -33506,7 +33507,7 @@
         <v>1.5038</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -33571,7 +33572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -33633,7 +33634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -33675,12 +33676,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -33702,7 +33700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -33764,7 +33762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>246</v>
       </c>
@@ -33830,7 +33828,7 @@
         <v>9.8890303193469463E+42</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -33892,7 +33890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -33961,7 +33959,7 @@
         <v>0.19204990862075413</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -34030,7 +34028,7 @@
         <v>1.1841201389239695</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -34099,7 +34097,7 @@
         <v>2.0750806076741224</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -34164,7 +34162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -34237,7 +34235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -34308,7 +34306,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -34375,7 +34373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -34442,7 +34440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -34513,7 +34511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -34582,7 +34580,7 @@
         <v>-0.23223627472975883</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -34649,7 +34647,7 @@
         <v>24.522353589775612</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -34715,7 +34713,7 @@
         <v>1.9525741268224333</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -34774,7 +34772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -34842,7 +34840,7 @@
       </c>
       <c r="AB21" s="14"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -34908,7 +34906,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -34977,7 +34975,7 @@
         <v>0.33287108369807955</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -35036,7 +35034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -35105,7 +35103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -35174,7 +35172,7 @@
         <v>0.36787944117144233</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -35242,7 +35240,7 @@
         <v>2.7182818284590451</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>71</v>
       </c>
@@ -35312,7 +35310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -35381,7 +35379,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -35450,7 +35448,7 @@
         <v>2.4036778455057202</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -35522,7 +35520,7 @@
         <v>5.1038747185367255</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -35588,7 +35586,7 @@
         <v>0.62245933120185459</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -35661,7 +35659,7 @@
         <v>0.66942775013665978</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -35730,7 +35728,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -35799,7 +35797,7 @@
         <v>0.36787944117144233</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -35868,7 +35866,7 @@
         <v>6.0496474644129465</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -35937,7 +35935,7 @@
         <v>7.3890560989306504</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>68</v>
       </c>
@@ -36006,7 +36004,7 @@
         <v>0.54961617319010736</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -36068,7 +36066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>108</v>
       </c>
@@ -36129,7 +36127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>106</v>
       </c>
@@ -36200,7 +36198,7 @@
       </c>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -36261,7 +36259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -36325,7 +36323,7 @@
       </c>
       <c r="X43"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -36382,7 +36380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -36439,7 +36437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -36493,7 +36491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -36548,7 +36546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>245</v>
       </c>
@@ -36601,7 +36599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>247</v>
       </c>
@@ -36655,7 +36653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>178</v>
       </c>
@@ -36713,7 +36711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>179</v>
       </c>
@@ -36771,7 +36769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>180</v>
       </c>
@@ -36829,7 +36827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>255</v>
       </c>
@@ -36867,7 +36865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>256</v>
       </c>
@@ -36905,7 +36903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>242</v>
       </c>
@@ -36939,7 +36937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>263</v>
       </c>
@@ -36973,7 +36971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>264</v>
       </c>
@@ -37007,7 +37005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>265</v>
       </c>
@@ -37041,7 +37039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>266</v>
       </c>
@@ -37075,7 +37073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>267</v>
       </c>
@@ -37116,6 +37114,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y60" xr:uid="{D6333A1E-4CCC-47DA-98C3-E7945B8628B8}">
+    <filterColumn colId="18">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -37130,18 +37135,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="22" max="22" width="19.5546875" customWidth="1"/>
-    <col min="25" max="25" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" customWidth="1"/>
+    <col min="3" max="4" width="6.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
+    <col min="22" max="22" width="19.54296875" customWidth="1"/>
+    <col min="25" max="25" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -37209,7 +37214,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -37267,7 +37272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -37323,7 +37328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -37386,7 +37391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -37442,7 +37447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>246</v>
       </c>
@@ -37498,7 +37503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -37554,7 +37559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -37617,7 +37622,7 @@
         <v>0.19204990862075413</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -37680,7 +37685,7 @@
         <v>1.1841201389239695</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -37743,7 +37748,7 @@
         <v>2.0750806076741224</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -37801,7 +37806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -37869,7 +37874,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -37935,7 +37940,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -37997,7 +38002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -38059,7 +38064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -38125,7 +38130,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -38188,7 +38193,7 @@
         <v>-0.23223627472975883</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -38251,7 +38256,7 @@
         <v>24.522353589775612</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -38314,7 +38319,7 @@
         <v>1.9525741268224333</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>71</v>
       </c>
@@ -38376,7 +38381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -38450,7 +38455,7 @@
         <v>0.50504999827283203</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -38513,7 +38518,7 @@
         <v>0.10499999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -38573,7 +38578,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -38626,7 +38631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -38683,7 +38688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -38739,7 +38744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -38802,7 +38807,7 @@
         <v>2.7182818284590451</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -38855,7 +38860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -38908,7 +38913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -38971,7 +38976,7 @@
         <v>2.4036778455057202</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -39037,7 +39042,7 @@
         <v>5.1038747185367255</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -39097,7 +39102,7 @@
         <v>0.62245933120185459</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -39165,7 +39170,7 @@
         <v>0.66942775013665978</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -39228,7 +39233,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -39291,7 +39296,7 @@
         <v>0.36787944117144233</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -39354,7 +39359,7 @@
         <v>6.0496474644129465</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -39418,7 +39423,7 @@
         <v>7.3890560989306504</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>68</v>
       </c>
@@ -39481,7 +39486,7 @@
         <v>0.54961617319010736</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>106</v>
       </c>
@@ -39545,7 +39550,7 @@
       </c>
       <c r="V39" s="3"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -39601,7 +39606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>108</v>
       </c>
@@ -39656,7 +39661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -39712,7 +39717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -39770,7 +39775,7 @@
       </c>
       <c r="V43"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -39822,7 +39827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -39874,7 +39879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -39922,7 +39927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -39971,7 +39976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>245</v>
       </c>
@@ -40022,7 +40027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>247</v>
       </c>
@@ -40073,7 +40078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>178</v>
       </c>
@@ -40125,7 +40130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>179</v>
       </c>
@@ -40177,7 +40182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>180</v>
       </c>
@@ -40229,7 +40234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>242</v>
       </c>
@@ -40253,7 +40258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>243</v>
       </c>
@@ -40264,7 +40269,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>244</v>
       </c>
@@ -40296,13 +40301,13 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -40334,7 +40339,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -40360,7 +40365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -40385,7 +40390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -40410,7 +40415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -40433,7 +40438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -40456,7 +40461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -40479,7 +40484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -40501,7 +40506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -40524,7 +40529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -40550,7 +40555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -40576,7 +40581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -40598,7 +40603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -40624,7 +40629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -40650,7 +40655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -40672,7 +40677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -40698,7 +40703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -40721,7 +40726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -40744,7 +40749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -40766,7 +40771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -40792,7 +40797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -40818,7 +40823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -40844,7 +40849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -40866,7 +40871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>155</v>
       </c>
@@ -40891,7 +40896,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -40916,7 +40921,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -40942,7 +40947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -40967,7 +40972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -40995,7 +41000,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -41020,7 +41025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -41044,7 +41049,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -41068,7 +41073,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -41094,7 +41099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -41117,7 +41122,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -41140,7 +41145,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -41163,7 +41168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -41186,7 +41191,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -41209,7 +41214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -41232,7 +41237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -41255,7 +41260,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -41278,7 +41283,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -41301,7 +41306,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -41324,7 +41329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -41347,7 +41352,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -41372,7 +41377,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -41390,7 +41395,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -41411,7 +41416,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>171</v>
       </c>
@@ -41432,7 +41437,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -41459,7 +41464,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -41487,7 +41492,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -41513,7 +41518,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -41538,7 +41543,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -41564,7 +41569,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -41587,7 +41592,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -41610,7 +41615,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>186</v>
       </c>
@@ -41636,7 +41641,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -41659,7 +41664,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -41679,7 +41684,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>223</v>
       </c>
@@ -41693,7 +41698,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>210</v>
       </c>
@@ -41713,7 +41718,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -41753,12 +41758,12 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>253</v>
       </c>
@@ -41767,7 +41772,7 @@
         <v>6102.7605061222803</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>254</v>
       </c>
@@ -41784,7 +41789,7 @@
         <v>6073.0284347383777</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D3">
         <f>D2-B1</f>
         <v>-29.732071383902621</v>
@@ -41803,48 +41808,48 @@
       <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.88671875" customWidth="1"/>
-    <col min="49" max="49" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="50" max="53" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.90625" customWidth="1"/>
+    <col min="49" max="49" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="50" max="53" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
       <c r="B1" t="str">
         <f>W_!D2</f>
         <v>scommiles</v>
@@ -42066,7 +42071,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>W_!B4</f>
         <v>scommiles</v>
@@ -42292,7 +42297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>W_!B5</f>
         <v>shcommiles_dif</v>
@@ -42518,7 +42523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>W_!B6</f>
         <v>swcommiles_difw</v>
@@ -42744,7 +42749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>W_!B7</f>
         <v>whours_pww_dif</v>
@@ -42970,7 +42975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>W_!B8</f>
         <v>hhours_pww</v>
@@ -43196,7 +43201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>W_!B9</f>
         <v>hhours_pwn_dif</v>
@@ -43422,7 +43427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>W_!B10</f>
         <v>whours_pnw_difwpww</v>
@@ -43648,7 +43653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>W_!B11</f>
         <v>shours</v>
@@ -43874,7 +43879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>W_!B12</f>
         <v>whwk_pww</v>
@@ -44100,7 +44105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>W_!B13</f>
         <v>whwk_pwn_dif</v>
@@ -44326,7 +44331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>W_!B14</f>
         <v>whwk_pnw_dif</v>
@@ -44552,7 +44557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>W_!B15</f>
         <v>hhwk_pww_dif</v>
@@ -44778,7 +44783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>W_!B16</f>
         <v>hhwk_pwn_difhpww</v>
@@ -45004,7 +45009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>W_!B17</f>
         <v>hhwk_pnw_difhpww</v>
@@ -45230,7 +45235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>W_!B18</f>
         <v>shwk</v>
@@ -45456,7 +45461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>W_!B19</f>
         <v>wlfp_dif</v>
@@ -45682,7 +45687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>W_!B20</f>
         <v>hlfp</v>
@@ -45908,7 +45913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>W_!B21</f>
         <v>wagegap_hw_withn</v>
@@ -46134,7 +46139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>W_!B22</f>
         <v>hdj</v>
@@ -46360,7 +46365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>W_!B23</f>
         <v>hdo</v>
@@ -46586,7 +46591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>W_!B24</f>
         <v>d_jobjob_all_psid</v>
@@ -46812,7 +46817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>W_!B25</f>
         <v>d_jobjob_within_psid</v>
@@ -47038,7 +47043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>W_!B26</f>
         <v>d_jobjob_hwithin_psid</v>
@@ -47264,7 +47269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>W_!B27</f>
         <v>d_jobjob_hw</v>
@@ -47490,7 +47495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>W_!B28</f>
         <v>d_jobjob_hw_actual</v>
@@ -47716,7 +47721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>W_!B29</f>
         <v>scity_dif</v>
@@ -47942,7 +47947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>W_!B30</f>
         <v>sdo_dif</v>
@@ -48168,7 +48173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>W_!B31</f>
         <v>wdo_dif</v>
@@ -48394,7 +48399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>W_!B32</f>
         <v>do_sd</v>
@@ -48620,7 +48625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>W_!B33</f>
         <v>dj_sd</v>
@@ -48846,7 +48851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>W_!B34</f>
         <v>abs_hdo_wdo</v>
@@ -49072,7 +49077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>W_!B35</f>
         <v>betacom_w</v>
@@ -49298,7 +49303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>W_!B36</f>
         <v>betalfp_w</v>
@@ -49524,7 +49529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>W_!B37</f>
         <v>betahrs_w</v>
@@ -49750,7 +49755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>W_!B38</f>
         <v>betahrs0_w</v>
@@ -49976,7 +49981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>W_!B39</f>
         <v>betahwk_w</v>
@@ -50202,7 +50207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>W_!B40</f>
         <v>betacom</v>
@@ -50428,7 +50433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>W_!B41</f>
         <v>betalfp</v>
@@ -50654,7 +50659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>W_!B42</f>
         <v>betahrs</v>
@@ -50880,7 +50885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>W_!B43</f>
         <v>betahrs0</v>
@@ -51106,7 +51111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>W_!B44</f>
         <v>betahwk</v>
@@ -51332,7 +51337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>W_!B45</f>
         <v>betalwg_w</v>
@@ -51558,7 +51563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>W_!B46</f>
         <v>betalwg</v>
@@ -51784,7 +51789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>W_!B47</f>
         <v>b</v>
@@ -52010,7 +52015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>W_!B48</f>
         <v>commiles_sd</v>
@@ -52236,7 +52241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>W_!B49</f>
         <v>sd_hdo_wdo</v>
@@ -52462,7 +52467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>W_!B50</f>
         <v>sdj_dif</v>
@@ -52688,7 +52693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>W_!B51</f>
         <v>NLY_</v>
@@ -52914,7 +52919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>W_!B52</f>
         <v>shouseexp</v>
@@ -53140,7 +53145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>W_!B53</f>
         <v>scity</v>
@@ -53366,7 +53371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>W_!B54</f>
         <v>sjobscity</v>
@@ -53592,7 +53597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>W_!B55</f>
         <v>p_gradient</v>
@@ -53818,7 +53823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>W_!B56</f>
         <v>p_gradient_simple</v>
@@ -54044,7 +54049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>W_!B57</f>
         <v>snmarried</v>
@@ -54270,7 +54275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>W_!B58</f>
         <v>L</v>
@@ -54509,36 +54514,36 @@
       <selection activeCell="AZ52" sqref="AZ52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="24" width="10.6640625" style="21" customWidth="1"/>
-    <col min="25" max="25" width="19.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="24" width="10.6328125" style="21" customWidth="1"/>
+    <col min="25" max="25" width="19.6328125" style="21" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19" style="21" customWidth="1"/>
-    <col min="27" max="27" width="14.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="36" width="10.6640625" style="21" customWidth="1"/>
-    <col min="37" max="37" width="14.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="10.6640625" style="21" customWidth="1"/>
-    <col min="40" max="40" width="19.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="41" max="46" width="10.6640625" style="21" customWidth="1"/>
-    <col min="47" max="47" width="23.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="17.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.5546875" style="21" customWidth="1"/>
-    <col min="51" max="51" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="28" max="36" width="10.6328125" style="21" customWidth="1"/>
+    <col min="37" max="37" width="14.36328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="10.6328125" style="21" customWidth="1"/>
+    <col min="40" max="40" width="19.1796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="41" max="46" width="10.6328125" style="21" customWidth="1"/>
+    <col min="47" max="47" width="23.90625" style="21" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="17.54296875" style="21" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.54296875" style="21" customWidth="1"/>
+    <col min="51" max="51" width="11.36328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.54296875" style="21" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="12" style="21" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.90625" style="21" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.453125" style="21" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="12" style="21" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.36328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.54296875" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A1" s="19"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -54763,7 +54768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -54988,7 +54993,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -55213,7 +55218,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <f>MATCH(C4,W_psid!$A$2:$A$104,0)</f>
         <v>6</v>
@@ -55439,7 +55444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <f>MATCH(C5,W_psid!$A$2:$A$104,0)</f>
         <v>13</v>
@@ -55665,7 +55670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <f>MATCH(C6,W_psid!$A$2:$A$104,0)</f>
         <v>14</v>
@@ -55891,7 +55896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <f>MATCH(C7,W_psid!$A$2:$A$104,0)</f>
         <v>45</v>
@@ -56117,7 +56122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <f>MATCH(C8,W_psid!$A$2:$A$104,0)</f>
         <v>43</v>
@@ -56343,7 +56348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <f>MATCH(C9,W_psid!$A$2:$A$104,0)</f>
         <v>44</v>
@@ -56569,7 +56574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <f>MATCH(C10,W_psid!$A$2:$A$104,0)</f>
         <v>46</v>
@@ -56795,7 +56800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <f>MATCH(C11,W_psid!$A$2:$A$104,0)</f>
         <v>38</v>
@@ -57021,7 +57026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <f>MATCH(C12,W_psid!$A$2:$A$104,0)</f>
         <v>49</v>
@@ -57247,7 +57252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <f>MATCH(C13,W_psid!$A$2:$A$104,0)</f>
         <v>50</v>
@@ -57473,7 +57478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <f>MATCH(C14,W_psid!$A$2:$A$104,0)</f>
         <v>51</v>
@@ -57699,7 +57704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <f>MATCH(C15,W_psid!$A$2:$A$104,0)</f>
         <v>52</v>
@@ -57925,7 +57930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <f>MATCH(C16,W_psid!$A$2:$A$104,0)</f>
         <v>53</v>
@@ -58151,7 +58156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <f>MATCH(C17,W_psid!$A$2:$A$104,0)</f>
         <v>54</v>
@@ -58377,7 +58382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A18" s="19">
         <f>MATCH(C18,W_psid!$A$2:$A$104,0)</f>
         <v>39</v>
@@ -58603,7 +58608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <f>MATCH(C19,W_psid!$A$2:$A$104,0)</f>
         <v>35</v>
@@ -58829,7 +58834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A20" s="19">
         <f>MATCH(C20,W_psid!$A$2:$A$104,0)</f>
         <v>34</v>
@@ -59055,7 +59060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A21" s="19">
         <f>MATCH(C21,W_psid!$A$2:$A$104,0)</f>
         <v>87</v>
@@ -59281,7 +59286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A22" s="19">
         <f>MATCH(C22,W_psid!$A$2:$A$104,0)</f>
         <v>29</v>
@@ -59507,7 +59512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A23" s="19">
         <f>MATCH(C23,W_psid!$A$2:$A$104,0)</f>
         <v>24</v>
@@ -59733,7 +59738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A24" s="19">
         <f>MATCH(C24,W_psid!$A$2:$A$104,0)</f>
         <v>55</v>
@@ -59959,7 +59964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A25" s="19">
         <f>MATCH(C25,W_psid!$A$2:$A$104,0)</f>
         <v>56</v>
@@ -60185,7 +60190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A26" s="19">
         <f>MATCH(C26,W_psid!$A$2:$A$104,0)</f>
         <v>74</v>
@@ -60411,7 +60416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A27" s="19">
         <f>MATCH(C27,W_psid!$A$2:$A$104,0)</f>
         <v>58</v>
@@ -60637,7 +60642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A28" s="19">
         <f>MATCH(C28,W_psid!$A$2:$A$104,0)</f>
         <v>59</v>
@@ -60863,7 +60868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A29" s="19">
         <f>MATCH(C29,W_psid!$A$2:$A$104,0)</f>
         <v>33</v>
@@ -61089,7 +61094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A30" s="19">
         <f>MATCH(C30,W_psid!$A$2:$A$104,0)</f>
         <v>28</v>
@@ -61315,7 +61320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A31" s="19">
         <f>MATCH(C31,W_psid!$A$2:$A$104,0)</f>
         <v>27</v>
@@ -61541,7 +61546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A32" s="19">
         <f>MATCH(C32,W_psid!$A$2:$A$104,0)</f>
         <v>63</v>
@@ -61767,7 +61772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A33" s="19">
         <f>MATCH(C33,W_psid!$A$2:$A$104,0)</f>
         <v>64</v>
@@ -61993,7 +61998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A34" s="19">
         <f>MATCH(C34,W_psid!$A$2:$A$104,0)</f>
         <v>60</v>
@@ -62219,7 +62224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A35" s="19">
         <f>MATCH(C35,W_psid!$A$2:$A$104,0)</f>
         <v>91</v>
@@ -62445,7 +62450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A36" s="19">
         <f>MATCH(C36,W_psid!$A$2:$A$104,0)</f>
         <v>93</v>
@@ -62671,7 +62676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A37" s="19">
         <f>MATCH(C37,W_psid!$A$2:$A$104,0)</f>
         <v>89</v>
@@ -62897,7 +62902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A38" s="19">
         <f>MATCH(C38,W_psid!$A$2:$A$104,0)</f>
         <v>97</v>
@@ -63123,7 +63128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A39" s="19">
         <f>MATCH(C39,W_psid!$A$2:$A$104,0)</f>
         <v>99</v>
@@ -63349,7 +63354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A40" s="19">
         <f>MATCH(C40,W_psid!$A$2:$A$104,0)</f>
         <v>90</v>
@@ -63575,7 +63580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A41" s="19">
         <f>MATCH(C41,W_psid!$A$2:$A$104,0)</f>
         <v>92</v>
@@ -63801,7 +63806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A42" s="19">
         <f>MATCH(C42,W_psid!$A$2:$A$104,0)</f>
         <v>88</v>
@@ -64027,7 +64032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A43" s="19">
         <f>MATCH(C43,W_psid!$A$2:$A$104,0)</f>
         <v>96</v>
@@ -64253,7 +64258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A44" s="19">
         <f>MATCH(C44,W_psid!$A$2:$A$104,0)</f>
         <v>98</v>
@@ -64479,7 +64484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A45" s="19">
         <f>MATCH(C45,W_psid!$A$2:$A$104,0)</f>
         <v>103</v>
@@ -64705,7 +64710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A46" s="19">
         <f>MATCH(C46,W_psid!$A$2:$A$104,0)</f>
         <v>102</v>
@@ -64931,7 +64936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A47" s="19">
         <f>MATCH(C47,W_psid!$A$2:$A$104,0)</f>
         <v>17</v>
@@ -65157,7 +65162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A48" s="19">
         <f>MATCH(C48,W_psid!$A$2:$A$104,0)</f>
         <v>68</v>
@@ -65390,7 +65395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A49" s="19">
         <f>MATCH(C49,W_psid!$A$2:$A$104,0)</f>
         <v>72</v>
@@ -65616,7 +65621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A50" s="19">
         <f>MATCH(C50,W_psid!$A$2:$A$104,0)</f>
         <v>30</v>
@@ -65842,7 +65847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A51" s="19">
         <f>MATCH(C51,W_other!$A$2:$A$98,0)</f>
         <v>7</v>
@@ -66029,7 +66034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A52" s="19">
         <f>MATCH(C52,W_other!$A$2:$A$98,0)</f>
         <v>5</v>
@@ -66216,7 +66221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A53" s="19">
         <f>MATCH(C53,W_other!$A$2:$A$98,0)</f>
         <v>1</v>
@@ -66403,7 +66408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A54" s="19">
         <f>MATCH(C54,W_other!$A$2:$A$98,0)</f>
         <v>2</v>
@@ -66590,7 +66595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A55" s="19">
         <f>MATCH(C55,W_other!$A$2:$A$98,0)</f>
         <v>4</v>
@@ -66777,7 +66782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A56" s="19">
         <f>MATCH(C56,W_other!$A$2:$A$98,0)</f>
         <v>3</v>
@@ -66964,7 +66969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A57" s="19">
         <f>MATCH(C57,W_other!$A$2:$A$98,0)</f>
         <v>8</v>
@@ -67151,7 +67156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A58" s="19">
         <f>MATCH(C58,W_other!$A$2:$A$98,0)</f>
         <v>6</v>
@@ -67351,12 +67356,12 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -67364,7 +67369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -67372,7 +67377,7 @@
         <v>0.39191477161275001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -67380,7 +67385,7 @@
         <v>0.49779057060822007</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -67391,7 +67396,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -67399,7 +67404,7 @@
         <v>7.2765061412580503E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -67408,7 +67413,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -67417,7 +67422,7 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -67426,7 +67431,7 @@
         <v>0.15652701064259733</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -67448,13 +67453,13 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>122</v>
       </c>
@@ -67462,7 +67467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -67473,7 +67478,7 @@
         <v>12.15999517122788</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -67484,7 +67489,7 @@
         <v>-3.8619970791605471</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -67495,7 +67500,7 @@
         <v>-3.087384738571985</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -67506,7 +67511,7 @@
         <v>-3.022548801873556</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -67517,7 +67522,7 @@
         <v>-0.113034175390985</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -67528,7 +67533,7 @@
         <v>0.36030751060892291</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -67539,7 +67544,7 @@
         <v>8.6669121586366344</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -67550,7 +67555,7 @@
         <v>-1.806606721385478</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -67561,7 +67566,7 @@
         <v>-1.8615985945475739</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -67572,7 +67577,7 @@
         <v>-2.3628717358738478</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -67583,7 +67588,7 @@
         <v>-0.1149982088563825</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -67594,7 +67599,7 @@
         <v>0.53125214244042096</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -67605,7 +67610,7 @@
         <v>-2.6967358682803728</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -67616,7 +67621,7 @@
         <v>-2.7084940999921869</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -67627,7 +67632,7 @@
         <v>-0.29730104993288509</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -67638,7 +67643,7 @@
         <v>0.37207329147337359</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -67649,7 +67654,7 @@
         <v>1.858023032880175E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -67660,7 +67665,7 @@
         <v>1.88140143270291E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -67671,7 +67676,7 @@
         <v>1.9666306282818059E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -67682,7 +67687,7 @@
         <v>1.9010739631001279E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -67693,7 +67698,7 @@
         <v>9.9917849898722749E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -67704,7 +67709,7 @@
         <v>1.0295415592160679E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -67715,7 +67720,7 @@
         <v>127.55650702409319</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -67726,7 +67731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -67737,7 +67742,7 @@
         <v>152.82676676750711</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -67748,7 +67753,7 @@
         <v>19570.859179726369</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -67759,7 +67764,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -67770,7 +67775,7 @@
         <v>20.026576813082229</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -67781,7 +67786,7 @@
         <v>8.2483445308043329E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -67792,7 +67797,7 @@
         <v>-1.7715051525342049</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -67803,7 +67808,7 @@
         <v>2.7941510756567679E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -67814,7 +67819,7 @@
         <v>-1.693068743449766</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -67825,7 +67830,7 @@
         <v>20.27689348857923</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -67836,7 +67841,7 @@
         <v>-1.4098748233617819</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -67847,7 +67852,7 @@
         <v>-1.5614483850622769</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -67858,7 +67863,7 @@
         <v>133.69302804456299</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -67869,7 +67874,7 @@
         <v>123.7160952414538</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -67880,7 +67885,7 @@
         <v>9.6525439793758896E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -67891,7 +67896,7 @@
         <v>7.0380097359185795E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -67902,7 +67907,7 @@
         <v>0.97377889090392133</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -67913,7 +67918,7 @@
         <v>-0.22074335511107751</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>147</v>
       </c>
@@ -67924,7 +67929,7 @@
         <v>0.93260040414320899</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>148</v>
       </c>
@@ -67935,7 +67940,7 @@
         <v>-0.25520335289941343</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -67946,7 +67951,7 @@
         <v>1873.126070137658</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -67957,7 +67962,7 @@
         <v>495.34145665939718</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -67968,7 +67973,7 @@
         <v>1965.336546713233</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -67979,7 +67984,7 @@
         <v>-151.63447703706171</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -67990,7 +67995,7 @@
         <v>593.16349855375722</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -68001,7 +68006,7 @@
         <v>188.3189278578576</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -68012,7 +68017,7 @@
         <v>2206.542127027375</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -68023,7 +68028,7 @@
         <v>63.102838742636607</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -68034,7 +68039,7 @@
         <v>-671.54653071480595</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -68045,7 +68050,7 @@
         <v>105.92467385866679</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -68056,7 +68061,7 @@
         <v>-617.09437937111397</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -68067,7 +68072,7 @@
         <v>-558.45904589999702</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -68078,7 +68083,7 @@
         <v>-604.50613192106152</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -68089,7 +68094,7 @@
         <v>-50.524167685204198</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -68100,7 +68105,7 @@
         <v>277.3960843684647</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -68111,7 +68116,7 @@
         <v>973.91420861085408</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -68122,7 +68127,7 @@
         <v>683.00321899695848</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -68133,7 +68138,7 @@
         <v>-109.1547555757197</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -68144,7 +68149,7 @@
         <v>17.300003612584021</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>55</v>
       </c>
@@ -68155,7 +68160,7 @@
         <v>16.41873490261716</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>155</v>
       </c>
@@ -68166,7 +68171,7 @@
         <v>16.266669440742501</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>156</v>
       </c>
@@ -68177,7 +68182,7 @@
         <v>16.373180166108941</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -68188,7 +68193,7 @@
         <v>16.50485049313583</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -68199,7 +68204,7 @@
         <v>9.7404941422592</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -68210,7 +68215,7 @@
         <v>1.8622385753987361</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -68221,7 +68226,7 @@
         <v>0.70642425961924049</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>29</v>
       </c>
@@ -68232,7 +68237,7 @@
         <v>-0.1053500575262209</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -68243,7 +68248,7 @@
         <v>-1.9224712072771601E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>31</v>
       </c>
@@ -68254,7 +68259,7 @@
         <v>-1.588598449141954E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -68265,7 +68270,7 @@
         <v>-1.870685337031015E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -68276,7 +68281,7 @@
         <v>-1.4226091377864509E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -68287,7 +68292,7 @@
         <v>-5.4621031206579556</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -68298,7 +68303,7 @@
         <v>-5.1460408600554093</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -68309,7 +68314,7 @@
         <v>-4.9346811983424637</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -68320,7 +68325,7 @@
         <v>-2.4845220850313421</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -68331,7 +68336,7 @@
         <v>-1.0639787156140439</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -68342,7 +68347,7 @@
         <v>3.284617791136256</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>159</v>
       </c>
@@ -68353,7 +68358,7 @@
         <v>5.3482037056109188</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>160</v>
       </c>
@@ -68364,7 +68369,7 @@
         <v>-1.4777125461852829</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -68375,7 +68380,7 @@
         <v>1.4503303731614511E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>43</v>
       </c>
@@ -68386,7 +68391,7 @@
         <v>-1.178628214930753E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>161</v>
       </c>
@@ -68397,7 +68402,7 @@
         <v>72.316991346232982</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>162</v>
       </c>
@@ -68408,7 +68413,7 @@
         <v>65.080088675771051</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -68419,7 +68424,7 @@
         <v>122.548474987894</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>164</v>
       </c>
@@ -68430,7 +68435,7 @@
         <v>142.5528382120342</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>165</v>
       </c>
@@ -68441,7 +68446,7 @@
         <v>18478.29340157317</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>198</v>
       </c>
@@ -68449,7 +68454,7 @@
         <v>-0.23237462229539671</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>199</v>
       </c>
@@ -68457,7 +68462,7 @@
         <v>-0.28859491202232501</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>200</v>
       </c>
@@ -68465,7 +68470,7 @@
         <v>-0.26293418832561888</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>201</v>
       </c>
@@ -68473,7 +68478,7 @@
         <v>-0.29549068412733248</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>202</v>
       </c>
@@ -68481,7 +68486,7 @@
         <v>-0.34749104115171359</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>203</v>
       </c>
@@ -68489,7 +68494,7 @@
         <v>-0.32539548393483092</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>166</v>
       </c>
@@ -68500,7 +68505,7 @@
         <v>-0.24229407501972891</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>167</v>
       </c>
@@ -68511,7 +68516,7 @@
         <v>-0.27005117509554499</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -68522,7 +68527,7 @@
         <v>-0.24397495405798261</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>168</v>
       </c>
@@ -68533,7 +68538,7 @@
         <v>-0.29782014109595578</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>169</v>
       </c>
@@ -68544,7 +68549,7 @@
         <v>-0.32810689174601743</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>170</v>
       </c>
@@ -68555,7 +68560,7 @@
         <v>-0.30802326104584432</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>171</v>
       </c>
@@ -68566,7 +68571,7 @@
         <v>8.2312817882667151</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>172</v>
       </c>
